--- a/media/files/2017/07/625.xlsx
+++ b/media/files/2017/07/625.xlsx
@@ -2096,7 +2096,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C20" s="10">
         <v>50</v>
@@ -2105,10 +2105,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="F20" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G20" s="9">
         <v>10</v>
@@ -2117,12 +2117,12 @@
         <v>10</v>
       </c>
       <c r="I20" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="4">
         <f>SUM(C20:J20)</f>
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="8"/>
@@ -2132,7 +2132,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" s="10">
         <v>50</v>
@@ -2141,22 +2141,24 @@
         <v>50</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="F21" s="9">
-        <v>50</v>
-      </c>
-      <c r="G21" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G21" s="9">
+        <v>10</v>
+      </c>
       <c r="H21" s="9">
         <v>10</v>
       </c>
       <c r="I21" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="4">
         <f>SUM(C21:J21)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="8"/>
@@ -2166,7 +2168,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" s="10">
         <v>50</v>
@@ -2175,22 +2177,22 @@
         <v>50</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F22" s="9">
         <v>50</v>
       </c>
-      <c r="G22" s="9">
-        <v>20</v>
-      </c>
+      <c r="G22" s="9"/>
       <c r="H22" s="9">
         <v>10</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <v>30</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="4">
         <f>SUM(C22:J22)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="8"/>
@@ -2200,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C23" s="10">
         <v>50</v>
@@ -2209,10 +2211,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F23" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G23" s="9">
         <v>20</v>
@@ -2221,9 +2223,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="9">
-        <v>30</v>
-      </c>
+      <c r="J23" s="9"/>
       <c r="K23" s="4">
         <f>SUM(C23:J23)</f>
         <v>180</v>
@@ -2236,7 +2236,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C24" s="10">
         <v>50</v>
@@ -2245,24 +2245,24 @@
         <v>50</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F24" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G24" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H24" s="9">
         <v>10</v>
       </c>
-      <c r="I24" s="9">
-        <v>30</v>
-      </c>
-      <c r="J24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9">
+        <v>30</v>
+      </c>
       <c r="K24" s="4">
         <f>SUM(C24:J24)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="8"/>
@@ -2272,7 +2272,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="10">
         <v>50</v>
@@ -2281,10 +2281,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F25" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G25" s="9">
         <v>10</v>
@@ -2292,11 +2292,13 @@
       <c r="H25" s="9">
         <v>10</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9">
+        <v>30</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="4">
         <f>SUM(C25:J25)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="8"/>
@@ -2306,7 +2308,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="10">
         <v>50</v>
@@ -2315,10 +2317,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="F26" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G26" s="9">
         <v>10</v>
@@ -2327,9 +2329,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="9">
-        <v>30</v>
-      </c>
+      <c r="J26" s="9"/>
       <c r="K26" s="4">
         <f>SUM(C26:J26)</f>
         <v>170</v>
@@ -2342,19 +2342,19 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="C27" s="10">
         <v>50</v>
       </c>
       <c r="D27" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F27" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G27" s="9">
         <v>10</v>
@@ -2362,9 +2362,7 @@
       <c r="H27" s="9">
         <v>10</v>
       </c>
-      <c r="I27" s="9">
-        <v>30</v>
-      </c>
+      <c r="I27" s="9"/>
       <c r="J27" s="9">
         <v>30</v>
       </c>
@@ -2380,19 +2378,19 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="C28" s="10">
         <v>50</v>
       </c>
       <c r="D28" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F28" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G28" s="9">
         <v>10</v>
@@ -2403,7 +2401,9 @@
       <c r="I28" s="9">
         <v>30</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="9">
+        <v>30</v>
+      </c>
       <c r="K28" s="4">
         <f>SUM(C28:J28)</f>
         <v>170</v>
@@ -2416,23 +2416,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C29" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D29" s="10">
         <v>50</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F29" s="9">
-        <v>50</v>
-      </c>
-      <c r="G29" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G29" s="9">
+        <v>10</v>
+      </c>
       <c r="H29" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I29" s="9">
         <v>30</v>
@@ -2440,7 +2442,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="4">
         <f>SUM(C29:J29)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="8"/>
@@ -2450,29 +2452,31 @@
         <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C30" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D30" s="10">
         <v>50</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F30" s="9">
         <v>50</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9">
-        <v>10</v>
-      </c>
-      <c r="I30" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="I30" s="9">
+        <v>30</v>
+      </c>
       <c r="J30" s="9"/>
       <c r="K30" s="4">
         <f>SUM(C30:J30)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="8"/>
@@ -2482,29 +2486,25 @@
         <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C31" s="10">
         <v>50</v>
       </c>
       <c r="D31" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F31" s="9">
         <v>50</v>
       </c>
-      <c r="G31" s="9">
-        <v>10</v>
-      </c>
+      <c r="G31" s="9"/>
       <c r="H31" s="9">
         <v>10</v>
       </c>
-      <c r="I31" s="9">
-        <v>30</v>
-      </c>
+      <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="4">
         <f>SUM(C31:J31)</f>
@@ -3298,19 +3298,19 @@
         <v>53</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C56" s="10">
         <v>50</v>
       </c>
       <c r="D56" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="F56" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9">
@@ -3320,7 +3320,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="4">
         <f>SUM(C56:J56)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N56" s="7"/>
       <c r="O56" s="8"/>
@@ -3330,7 +3330,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C57" s="10">
         <v>50</v>
@@ -3339,19 +3339,17 @@
         <v>10</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="F57" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9">
         <v>10</v>
       </c>
       <c r="I57" s="9"/>
-      <c r="J57" s="9">
-        <v>30</v>
-      </c>
+      <c r="J57" s="9"/>
       <c r="K57" s="4">
         <f>SUM(C57:J57)</f>
         <v>120</v>
@@ -3364,7 +3362,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C58" s="10">
         <v>50</v>
@@ -3373,7 +3371,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F58" s="9">
         <v>20</v>
@@ -3398,29 +3396,31 @@
         <v>56</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C59" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D59" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F59" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="J59" s="9">
+        <v>30</v>
+      </c>
       <c r="K59" s="4">
         <f>SUM(C59:J59)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -3428,29 +3428,29 @@
         <v>57</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C60" s="10">
         <v>30</v>
       </c>
       <c r="D60" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="F60" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="4">
         <f>SUM(C60:J60)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N60" s="7"/>
       <c r="O60" s="8"/>
@@ -3460,7 +3460,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="C61" s="10">
         <v>30</v>
@@ -3469,7 +3469,7 @@
         <v>50</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="F61" s="9">
         <v>20</v>
@@ -3492,7 +3492,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="C62" s="10">
         <v>30</v>
@@ -3501,20 +3501,20 @@
         <v>50</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="F62" s="9">
         <v>20</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="4">
         <f>SUM(C62:J62)</f>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N62" s="7"/>
       <c r="O62" s="8"/>
@@ -3524,23 +3524,23 @@
         <v>60</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C63" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D63" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F63" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3556,23 +3556,21 @@
         <v>61</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C64" s="10">
         <v>50</v>
       </c>
       <c r="D64" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F64" s="9">
-        <v>20</v>
-      </c>
-      <c r="G64" s="9">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G64" s="9"/>
       <c r="H64" s="9">
         <v>10</v>
       </c>
@@ -3580,7 +3578,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="4">
         <f>SUM(C64:J64)</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N64" s="7"/>
       <c r="O64" s="8"/>
@@ -3590,21 +3588,23 @@
         <v>62</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C65" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D65" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F65" s="9">
-        <v>10</v>
-      </c>
-      <c r="G65" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G65" s="9">
+        <v>10</v>
+      </c>
       <c r="H65" s="9">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C66" s="10">
         <v>30</v>
@@ -3631,7 +3631,7 @@
         <v>50</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F66" s="9">
         <v>10</v>
@@ -3654,16 +3654,16 @@
         <v>64</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C67" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D67" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F67" s="9">
         <v>10</v>
@@ -3686,33 +3686,29 @@
         <v>65</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C68" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D68" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F68" s="9">
         <v>10</v>
       </c>
-      <c r="G68" s="9">
-        <v>10</v>
-      </c>
+      <c r="G68" s="9"/>
       <c r="H68" s="9">
-        <v>5</v>
-      </c>
-      <c r="I68" s="9">
-        <v>30</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="4">
         <f>SUM(C68:J68)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -3720,25 +3716,29 @@
         <v>66</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C69" s="10">
         <v>30</v>
       </c>
       <c r="D69" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F69" s="9">
         <v>10</v>
       </c>
-      <c r="G69" s="9"/>
+      <c r="G69" s="9">
+        <v>10</v>
+      </c>
       <c r="H69" s="9">
         <v>5</v>
       </c>
-      <c r="I69" s="9"/>
+      <c r="I69" s="9">
+        <v>30</v>
+      </c>
       <c r="J69" s="9"/>
       <c r="K69" s="4">
         <f>SUM(C69:J69)</f>
@@ -3752,29 +3752,29 @@
         <v>67</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C70" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D70" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="F70" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="4">
         <f>SUM(C70:J70)</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="8"/>
@@ -3784,7 +3784,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C71" s="10">
         <v>30</v>
@@ -3793,22 +3793,22 @@
         <v>30</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F71" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="9">
         <v>10</v>
       </c>
       <c r="H71" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="4">
         <f>SUM(C71:J71)</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N71" s="7"/>
       <c r="O71" s="8"/>
@@ -3818,27 +3818,25 @@
         <v>69</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C72" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D72" s="10">
         <v>10</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F72" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9">
-        <v>5</v>
-      </c>
-      <c r="I72" s="9">
-        <v>30</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="4">
         <f>SUM(C72:J72)</f>
@@ -3852,21 +3850,23 @@
         <v>70</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C73" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D73" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F73" s="9">
-        <v>15</v>
-      </c>
-      <c r="G73" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="G73" s="9">
+        <v>10</v>
+      </c>
       <c r="H73" s="9">
         <v>10</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="4">
         <f>SUM(C73:J73)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N73" s="7"/>
       <c r="O73" s="8"/>
@@ -3884,7 +3884,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C74" s="10">
         <v>30</v>
@@ -3893,22 +3893,22 @@
         <v>10</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="F74" s="9">
-        <v>20</v>
-      </c>
-      <c r="G74" s="9">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G74" s="9"/>
       <c r="H74" s="9">
         <v>5</v>
       </c>
-      <c r="I74" s="9"/>
+      <c r="I74" s="9">
+        <v>30</v>
+      </c>
       <c r="J74" s="9"/>
       <c r="K74" s="4">
         <f>SUM(C74:J74)</f>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N74" s="7"/>
       <c r="O74" s="8"/>
@@ -4364,7 +4364,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:K88">
-    <sortCondition descending="1" ref="K4"/>
+    <sortCondition descending="1" ref="K88"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="1">
